--- a/Q1_已修正标定表.xlsx
+++ b/Q1_已修正标定表.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>未修正标定值/L</t>
+          <t>Volume/L</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1068,7 +1068,7 @@
         <v>965.660775533432</v>
       </c>
       <c r="E42" t="n">
-        <v>913.4593304643249</v>
+        <v>956.4593305471299</v>
       </c>
     </row>
     <row r="43">
@@ -1083,7 +1083,7 @@
         <v>1004.95378205442</v>
       </c>
       <c r="E43" t="n">
-        <v>899.5665957544263</v>
+        <v>985.56659589386</v>
       </c>
     </row>
     <row r="44">
@@ -1094,13 +1094,13 @@
         <v>1044.58392131927</v>
       </c>
       <c r="C44" t="n">
-        <v>262.777220635679</v>
+        <v>47.7772202216551</v>
       </c>
       <c r="D44" t="n">
-        <v>781.806700683591</v>
+        <v>996.806701097615</v>
       </c>
       <c r="E44" t="n">
-        <v>885.4240853568433</v>
+        <v>1014.42408552873</v>
       </c>
     </row>
     <row r="45">
@@ -1111,13 +1111,13 @@
         <v>1084.53487082294</v>
       </c>
       <c r="C45" t="n">
-        <v>265.844820937335</v>
+        <v>50.8448206541906</v>
       </c>
       <c r="D45" t="n">
-        <v>818.690049885605</v>
+        <v>1033.69005016875</v>
       </c>
       <c r="E45" t="n">
-        <v>871.0412584494215</v>
+        <v>1043.041258631523</v>
       </c>
     </row>
     <row r="46">
@@ -1128,13 +1128,13 @@
         <v>1124.7907174483</v>
       </c>
       <c r="C46" t="n">
-        <v>268.781598821131</v>
+        <v>53.7815986588658</v>
       </c>
       <c r="D46" t="n">
-        <v>856.009118627169</v>
+        <v>1071.00911878943</v>
       </c>
       <c r="E46" t="n">
-        <v>856.4276413137147</v>
+        <v>1071.427641485669</v>
       </c>
     </row>
     <row r="47">
@@ -1145,13 +1145,13 @@
         <v>1165.33592392866</v>
       </c>
       <c r="C47" t="n">
-        <v>271.589282932337</v>
+        <v>56.5892828812629</v>
       </c>
       <c r="D47" t="n">
-        <v>893.746640996323</v>
+        <v>1108.7466410474</v>
       </c>
       <c r="E47" t="n">
-        <v>894.1482374751758</v>
+        <v>1109.148237535628</v>
       </c>
     </row>
     <row r="48">
@@ -1162,13 +1162,13 @@
         <v>1206.15529829211</v>
       </c>
       <c r="C48" t="n">
-        <v>274.269601916224</v>
+        <v>59.269601966964</v>
       </c>
       <c r="D48" t="n">
-        <v>931.885696375886</v>
+        <v>1146.88569632515</v>
       </c>
       <c r="E48" t="n">
-        <v>932.2706844451528</v>
+        <v>1147.27068440348</v>
       </c>
     </row>
     <row r="49">
@@ -1179,13 +1179,13 @@
         <v>1247.23396590896</v>
       </c>
       <c r="C49" t="n">
-        <v>276.824284418064</v>
+        <v>61.8242845615516</v>
       </c>
       <c r="D49" t="n">
-        <v>970.409681490896</v>
+        <v>1185.40968134741</v>
       </c>
       <c r="E49" t="n">
-        <v>970.7783532200531</v>
+        <v>1185.778353085324</v>
       </c>
     </row>
     <row r="50">
@@ -1196,13 +1196,13 @@
         <v>1288.55734381862</v>
       </c>
       <c r="C50" t="n">
-        <v>279.255059083128</v>
+        <v>64.25505931060761</v>
       </c>
       <c r="D50" t="n">
-        <v>1009.30228473549</v>
+        <v>1224.30228450801</v>
       </c>
       <c r="E50" t="n">
-        <v>1009.654908474748</v>
+        <v>1224.654908255716</v>
       </c>
     </row>
     <row r="51">
@@ -1213,13 +1213,13 @@
         <v>1330.11111705836</v>
       </c>
       <c r="C51" t="n">
-        <v>281.563654556687</v>
+        <v>66.5636548597147</v>
       </c>
       <c r="D51" t="n">
-        <v>1048.54746250167</v>
+        <v>1263.54746219865</v>
       </c>
       <c r="E51" t="n">
-        <v>1048.884284650165</v>
+        <v>1263.884284355274</v>
       </c>
     </row>
     <row r="52">
@@ -1230,13 +1230,13 @@
         <v>1371.88121675381</v>
       </c>
       <c r="C52" t="n">
-        <v>283.751799484013</v>
+        <v>68.7517998544547</v>
       </c>
       <c r="D52" t="n">
-        <v>1088.1294172698</v>
+        <v>1303.12941689936</v>
       </c>
       <c r="E52" t="n">
-        <v>1088.450663834682</v>
+        <v>1303.450663472066</v>
       </c>
     </row>
     <row r="53">
@@ -1247,13 +1247,13 @@
         <v>1413.85379976335</v>
       </c>
       <c r="C53" t="n">
-        <v>285.821222510376</v>
+        <v>70.82122294041019</v>
       </c>
       <c r="D53" t="n">
-        <v>1128.03257725297</v>
+        <v>1343.03257682294</v>
       </c>
       <c r="E53" t="n">
-        <v>1128.338455225986</v>
+        <v>1343.338454803466</v>
       </c>
     </row>
     <row r="54">
@@ -1264,13 +1264,13 @@
         <v>1456.01522969453</v>
       </c>
       <c r="C54" t="n">
-        <v>287.773652281047</v>
+        <v>72.7736527631632</v>
       </c>
       <c r="D54" t="n">
-        <v>1168.24157741348</v>
+        <v>1383.24157693137</v>
       </c>
       <c r="E54" t="n">
-        <v>1168.532275987486</v>
+        <v>1383.532275512572</v>
       </c>
     </row>
     <row r="55">
@@ -1281,13 +1281,13 @@
         <v>1498.35205913331</v>
       </c>
       <c r="C55" t="n">
-        <v>289.610817441298</v>
+        <v>74.6108179682961</v>
       </c>
       <c r="D55" t="n">
-        <v>1208.74124169201</v>
+        <v>1423.74124116501</v>
       </c>
       <c r="E55" t="n">
-        <v>1209.016933336494</v>
+        <v>1424.016932816386</v>
       </c>
     </row>
     <row r="56">
@@ -1298,13 +1298,13 @@
         <v>1540.85101294557</v>
       </c>
       <c r="C56" t="n">
-        <v>291.3344466364</v>
+        <v>76.3344472013911</v>
       </c>
       <c r="D56" t="n">
-        <v>1249.51656630917</v>
+        <v>1464.51656574418</v>
       </c>
       <c r="E56" t="n">
-        <v>1249.777407720766</v>
+        <v>1464.777407162352</v>
       </c>
     </row>
     <row r="57">
@@ -1315,13 +1315,13 @@
         <v>1583.49897252646</v>
       </c>
       <c r="C57" t="n">
-        <v>292.946268511624</v>
+        <v>77.94626910803051</v>
       </c>
       <c r="D57" t="n">
-        <v>1290.55270401484</v>
+        <v>1505.55270341843</v>
       </c>
       <c r="E57" t="n">
-        <v>1290.798836956444</v>
+        <v>1505.798836366302</v>
       </c>
     </row>
     <row r="58">
@@ -1332,13 +1332,13 @@
         <v>1626.28296088657</v>
       </c>
       <c r="C58" t="n">
-        <v>294.448011712241</v>
+        <v>79.4480123337963</v>
       </c>
       <c r="D58" t="n">
-        <v>1331.83494917433</v>
+        <v>1546.83494855277</v>
       </c>
       <c r="E58" t="n">
-        <v>1332.066501214396</v>
+        <v>1547.066500598794</v>
       </c>
     </row>
     <row r="59">
@@ -1349,13 +1349,13 @@
         <v>1669.19012847539</v>
       </c>
       <c r="C59" t="n">
-        <v>295.841404883522</v>
+        <v>80.841405524271</v>
       </c>
       <c r="D59" t="n">
-        <v>1373.34872359187</v>
+        <v>1588.34872295112</v>
       </c>
       <c r="E59" t="n">
-        <v>1373.565808753742</v>
+        <v>1588.565808118634</v>
       </c>
     </row>
     <row r="60">
@@ -1366,13 +1366,13 @@
         <v>1712.20773965251</v>
       </c>
       <c r="C60" t="n">
-        <v>297.128176670739</v>
+        <v>82.1281773250369</v>
       </c>
       <c r="D60" t="n">
-        <v>1415.07956298177</v>
+        <v>1630.07956232747</v>
       </c>
       <c r="E60" t="n">
-        <v>1415.282282311406</v>
+        <v>1630.282281662438</v>
       </c>
     </row>
     <row r="61">
@@ -1383,13 +1383,13 @@
         <v>1755.32315972506</v>
       </c>
       <c r="C61" t="n">
-        <v>298.310055719162</v>
+        <v>83.31005638167611</v>
       </c>
       <c r="D61" t="n">
-        <v>1457.0131040059</v>
+        <v>1672.01310334338</v>
       </c>
       <c r="E61" t="n">
-        <v>1457.201546065048</v>
+        <v>1672.201545407554</v>
       </c>
     </row>
     <row r="62">
@@ -1400,13 +1400,13 @@
         <v>1798.52384247722</v>
       </c>
       <c r="C62" t="n">
-        <v>299.388770674063</v>
+        <v>84.3887713397708</v>
       </c>
       <c r="D62" t="n">
-        <v>1499.13507180316</v>
+        <v>1714.13507113745</v>
       </c>
       <c r="E62" t="n">
-        <v>1499.309313093988</v>
+        <v>1714.309312432988</v>
       </c>
     </row>
     <row r="63">
@@ -1417,13 +1417,13 @@
         <v>1841.79731812325</v>
       </c>
       <c r="C63" t="n">
-        <v>300.366050180713</v>
+        <v>85.3660508449034</v>
       </c>
       <c r="D63" t="n">
-        <v>1541.43126794254</v>
+        <v>1756.43126727835</v>
       </c>
       <c r="E63" t="n">
-        <v>1541.59137326879</v>
+        <v>1756.591372608998</v>
       </c>
     </row>
     <row r="64">
@@ -1434,13 +1434,13 @@
         <v>1885.13118162095</v>
       </c>
       <c r="C64" t="n">
-        <v>301.243622884384</v>
+        <v>86.2436235426561</v>
       </c>
       <c r="D64" t="n">
-        <v>1583.88755873657</v>
+        <v>1798.88755807829</v>
       </c>
       <c r="E64" t="n">
-        <v>1584.033581505352</v>
+        <v>1799.033580851168</v>
       </c>
     </row>
     <row r="65">
@@ -1451,13 +1451,13 @@
         <v>1928.51308128613</v>
       </c>
       <c r="C65" t="n">
-        <v>302.023217430345</v>
+        <v>87.023218078611</v>
       </c>
       <c r="D65" t="n">
-        <v>1626.48986385578</v>
+        <v>1841.48986320752</v>
       </c>
       <c r="E65" t="n">
-        <v>1626.621846323532</v>
+        <v>1841.621845679044</v>
       </c>
     </row>
     <row r="66">
@@ -1468,13 +1468,13 @@
         <v>1971.93070765258</v>
       </c>
       <c r="C66" t="n">
-        <v>302.706562463869</v>
+        <v>87.7065630983505</v>
       </c>
       <c r="D66" t="n">
-        <v>1669.22414518871</v>
+        <v>1884.22414455423</v>
       </c>
       <c r="E66" t="n">
-        <v>1669.342118653926</v>
+        <v>1884.342118022912</v>
       </c>
     </row>
     <row r="67">
@@ -1485,13 +1485,13 @@
         <v>2015.37178252429</v>
       </c>
       <c r="C67" t="n">
-        <v>303.295386630226</v>
+        <v>88.2953872474569</v>
       </c>
       <c r="D67" t="n">
-        <v>1712.07639589406</v>
+        <v>1927.07639527683</v>
       </c>
       <c r="E67" t="n">
-        <v>1712.180380839108</v>
+        <v>1927.180380225036</v>
       </c>
     </row>
     <row r="68">
@@ -1502,13 +1502,13 @@
         <v>2058.8240481692</v>
       </c>
       <c r="C68" t="n">
-        <v>303.791418574688</v>
+        <v>88.7914191715121</v>
       </c>
       <c r="D68" t="n">
-        <v>1755.03262959451</v>
+        <v>1970.03262899769</v>
       </c>
       <c r="E68" t="n">
-        <v>1755.122635777916</v>
+        <v>1970.122635183938</v>
       </c>
     </row>
     <row r="69">
@@ -1519,13 +1519,13 @@
         <v>2102.27525660501</v>
       </c>
       <c r="C69" t="n">
-        <v>304.196386942526</v>
+        <v>89.19638751609889</v>
       </c>
       <c r="D69" t="n">
-        <v>1798.07886966248</v>
+        <v>2013.07886908891</v>
       </c>
       <c r="E69" t="n">
-        <v>1798.154896162814</v>
+        <v>2013.154895591776</v>
       </c>
     </row>
     <row r="70">
@@ -1536,13 +1536,13 @@
         <v>2145.71315892883</v>
       </c>
       <c r="C70" t="n">
-        <v>304.512020379011</v>
+        <v>89.5120209267991</v>
       </c>
       <c r="D70" t="n">
-        <v>1841.20113854982</v>
+        <v>2056.20113800203</v>
       </c>
       <c r="E70" t="n">
-        <v>1841.263173761514</v>
+        <v>2056.26317321595</v>
       </c>
     </row>
     <row r="71">
@@ -1553,13 +1553,13 @@
         <v>2189.12549464261</v>
       </c>
       <c r="C71" t="n">
-        <v>304.740047529414</v>
+        <v>89.7400480491952</v>
       </c>
       <c r="D71" t="n">
-        <v>1884.3854471132</v>
+        <v>2099.38544659342</v>
       </c>
       <c r="E71" t="n">
-        <v>1884.43346869441</v>
+        <v>2099.433468176542</v>
       </c>
     </row>
     <row r="72">
@@ -1570,13 +1570,13 @@
         <v>2232.49998092657</v>
       </c>
       <c r="C72" t="n">
-        <v>304.882197039007</v>
+        <v>89.8821975288693</v>
       </c>
       <c r="D72" t="n">
-        <v>1927.61778388756</v>
+        <v>2142.6177833977</v>
       </c>
       <c r="E72" t="n">
-        <v>1927.651758659396</v>
+        <v>2142.651758171134</v>
       </c>
     </row>
     <row r="73">
@@ -1587,13 +1587,13 @@
         <v>2275.82430181205</v>
       </c>
       <c r="C73" t="n">
-        <v>304.94019755306</v>
+        <v>89.94019801140369</v>
       </c>
       <c r="D73" t="n">
-        <v>1970.88410425899</v>
+        <v>2185.88410380065</v>
       </c>
       <c r="E73" t="n">
-        <v>1970.903988055042</v>
+        <v>2185.903987597988</v>
       </c>
     </row>
     <row r="74">
@@ -1604,13 +1604,13 @@
         <v>2319.08609720425</v>
       </c>
       <c r="C74" t="n">
-        <v>304.915777716844</v>
+        <v>89.9157781423806</v>
       </c>
       <c r="D74" t="n">
-        <v>2014.17031948741</v>
+        <v>2229.17031906187</v>
       </c>
       <c r="E74" t="n">
-        <v>2014.176056951996</v>
+        <v>2229.176056527438</v>
       </c>
     </row>
     <row r="75">
@@ -1621,13 +1621,13 @@
         <v>2362.27295170368</v>
       </c>
       <c r="C75" t="n">
-        <v>304.810666175631</v>
+        <v>89.8106665673825</v>
       </c>
       <c r="D75" t="n">
-        <v>2057.46228552805</v>
+        <v>2272.4622851363</v>
       </c>
       <c r="E75" t="n">
-        <v>2057.453809860818</v>
+        <v>2272.453809469734</v>
       </c>
     </row>
     <row r="76">
@@ -1638,13 +1638,13 @@
         <v>2405.37238317266</v>
       </c>
       <c r="C76" t="n">
-        <v>304.626591574693</v>
+        <v>89.6265919319912</v>
       </c>
       <c r="D76" t="n">
-        <v>2100.74579159797</v>
+        <v>2315.74579124067</v>
       </c>
       <c r="E76" t="n">
-        <v>2100.723024242144</v>
+        <v>2315.7230238852</v>
       </c>
     </row>
     <row r="77">
@@ -1655,13 +1655,13 @@
         <v>2448.37183099097</v>
       </c>
       <c r="C77" t="n">
-        <v>304.365282559299</v>
+        <v>89.3652828817892</v>
       </c>
       <c r="D77" t="n">
-        <v>2144.00654843167</v>
+        <v>2359.00654810918</v>
       </c>
       <c r="E77" t="n">
-        <v>2143.969398702236</v>
+        <v>2358.96939837979</v>
       </c>
     </row>
     <row r="78">
@@ -1672,13 +1672,13 @@
         <v>2491.25864394034</v>
       </c>
       <c r="C78" t="n">
-        <v>304.028467774722</v>
+        <v>89.0284680623588</v>
       </c>
       <c r="D78" t="n">
-        <v>2187.23017616562</v>
+        <v>2402.23017587798</v>
       </c>
       <c r="E78" t="n">
-        <v>2187.178540813264</v>
+        <v>2402.17854052536</v>
       </c>
     </row>
     <row r="79">
@@ -1689,13 +1689,13 @@
         <v>2534.0200676541</v>
       </c>
       <c r="C79" t="n">
-        <v>303.617875866232</v>
+        <v>88.6178761192822</v>
       </c>
       <c r="D79" t="n">
-        <v>2230.40219178787</v>
+        <v>2445.40219153482</v>
       </c>
       <c r="E79" t="n">
-        <v>2230.335954493366</v>
+        <v>2445.335954239738</v>
       </c>
     </row>
     <row r="80">
@@ -1706,13 +1706,13 @@
         <v>2576.64323156229</v>
       </c>
       <c r="C80" t="n">
-        <v>303.1352354791</v>
+        <v>88.1352356981415</v>
       </c>
       <c r="D80" t="n">
-        <v>2273.50799608319</v>
+        <v>2488.50799586415</v>
       </c>
       <c r="E80" t="n">
-        <v>2273.427026876148</v>
+        <v>2488.427026656218</v>
       </c>
     </row>
     <row r="81">
@@ -1723,13 +1723,13 @@
         <v>2619.11513525708</v>
       </c>
       <c r="C81" t="n">
-        <v>302.582275258598</v>
+        <v>87.5822754445192</v>
       </c>
       <c r="D81" t="n">
-        <v>2316.53285999848</v>
+        <v>2531.53285981256</v>
       </c>
       <c r="E81" t="n">
-        <v>2316.437014593106</v>
+        <v>2531.437014405986</v>
       </c>
     </row>
     <row r="82">
@@ -1740,13 +1740,13 @@
         <v>2661.42263419558</v>
       </c>
       <c r="C82" t="n">
-        <v>301.960723849998</v>
+        <v>86.9607240039973</v>
       </c>
       <c r="D82" t="n">
-        <v>2359.46191034558</v>
+        <v>2574.46191019158</v>
       </c>
       <c r="E82" t="n">
-        <v>2359.351029384908</v>
+        <v>2574.351029229398</v>
       </c>
     </row>
     <row r="83">
@@ -1757,13 +1757,13 @@
         <v>2703.55242464898</v>
       </c>
       <c r="C83" t="n">
-        <v>301.272309898569</v>
+        <v>86.27231002215829</v>
       </c>
       <c r="D83" t="n">
-        <v>2402.28011475041</v>
+        <v>2617.28011462682</v>
       </c>
       <c r="E83" t="n">
-        <v>2402.154022948786</v>
+        <v>2617.154022823374</v>
       </c>
     </row>
     <row r="84">
@@ -1774,13 +1774,13 @@
         <v>2745.49102779646</v>
       </c>
       <c r="C84" t="n">
-        <v>300.518762049583</v>
+        <v>85.5187621445842</v>
       </c>
       <c r="D84" t="n">
-        <v>2444.97226574688</v>
+        <v>2659.97226565188</v>
       </c>
       <c r="E84" t="n">
-        <v>2444.830770918936</v>
+        <v>2659.830770821802</v>
       </c>
     </row>
     <row r="85">
@@ -1791,13 +1791,13 @@
         <v>2787.22477285089</v>
       </c>
       <c r="C85" t="n">
-        <v>299.701808948312</v>
+        <v>84.7018090168576</v>
       </c>
       <c r="D85" t="n">
-        <v>2487.52296390258</v>
+        <v>2702.52296383403</v>
       </c>
       <c r="E85" t="n">
-        <v>2487.365855864636</v>
+        <v>2702.365855793648</v>
       </c>
     </row>
     <row r="86">
@@ -1808,13 +1808,13 @@
         <v>2828.73977908926</v>
       </c>
       <c r="C86" t="n">
-        <v>298.823179240026</v>
+        <v>83.8231792845602</v>
       </c>
       <c r="D86" t="n">
-        <v>2529.91659984923</v>
+        <v>2744.9165998047</v>
       </c>
       <c r="E86" t="n">
-        <v>2529.743649176488</v>
+        <v>2744.743649129202</v>
       </c>
     </row>
     <row r="87">
@@ -1825,13 +1825,13 @@
         <v>2870.02193664408</v>
       </c>
       <c r="C87" t="n">
-        <v>297.884601569997</v>
+        <v>82.88460159327489</v>
       </c>
       <c r="D87" t="n">
-        <v>2572.13733507408</v>
+        <v>2787.13733505081</v>
       </c>
       <c r="E87" t="n">
-        <v>2571.948291694298</v>
+        <v>2786.948291667956</v>
       </c>
     </row>
     <row r="88">
@@ -1842,13 +1842,13 @@
         <v>2911.05688589317</v>
       </c>
       <c r="C88" t="n">
-        <v>296.887804583495</v>
+        <v>81.88780458858319</v>
       </c>
       <c r="D88" t="n">
-        <v>2614.16908130967</v>
+        <v>2829.16908130459</v>
       </c>
       <c r="E88" t="n">
-        <v>2613.96367291004</v>
+        <v>2828.963672901578</v>
       </c>
     </row>
     <row r="89">
@@ -1859,13 +1859,13 @@
         <v>2951.82999526172</v>
       </c>
       <c r="C89" t="n">
-        <v>295.834516925793</v>
+        <v>80.8345169160678</v>
       </c>
       <c r="D89" t="n">
-        <v>2655.99547833593</v>
+        <v>2870.99547834565</v>
       </c>
       <c r="E89" t="n">
-        <v>2655.773408555618</v>
+        <v>2870.773408561656</v>
       </c>
     </row>
     <row r="90">
@@ -1876,13 +1876,13 @@
         <v>2992.32633722345</v>
       </c>
       <c r="C90" t="n">
-        <v>294.72646724216</v>
+        <v>79.7264672213112</v>
       </c>
       <c r="D90" t="n">
-        <v>2697.59986998129</v>
+        <v>2912.59987000214</v>
       </c>
       <c r="E90" t="n">
-        <v>2697.360816356842</v>
+        <v>2912.360816373692</v>
       </c>
     </row>
     <row r="91">
@@ -1893,13 +1893,13 @@
         <v>3032.53066225499</v>
       </c>
       <c r="C91" t="n">
-        <v>293.565384177869</v>
+        <v>78.5653841498951</v>
       </c>
       <c r="D91" t="n">
-        <v>2738.96527807712</v>
+        <v>2953.96527810509</v>
       </c>
       <c r="E91" t="n">
-        <v>2738.708889701108</v>
+        <v>2953.708889724772</v>
       </c>
     </row>
     <row r="92">
@@ -1910,13 +1910,13 @@
         <v>3072.42737045839</v>
       </c>
       <c r="C92" t="n">
-        <v>292.352996378191</v>
+        <v>77.3529963474023</v>
       </c>
       <c r="D92" t="n">
-        <v>2780.0743740802</v>
+        <v>2995.07437411099</v>
       </c>
       <c r="E92" t="n">
-        <v>2779.80026892559</v>
+        <v>2994.80026895176</v>
       </c>
     </row>
     <row r="93">
@@ -1927,13 +1927,13 @@
         <v>3112.0004805194</v>
       </c>
       <c r="C93" t="n">
-        <v>291.091032488396</v>
+        <v>76.09103245941439</v>
       </c>
       <c r="D93" t="n">
-        <v>2820.909448031</v>
+        <v>3035.90944805999</v>
       </c>
       <c r="E93" t="n">
-        <v>2820.617209883454</v>
+        <v>3035.617209907506</v>
       </c>
     </row>
     <row r="94">
@@ -1944,13 +1944,13 @@
         <v>3151.2335956121</v>
       </c>
       <c r="C94" t="n">
-        <v>289.781221153755</v>
+        <v>74.781221131514</v>
       </c>
       <c r="D94" t="n">
-        <v>2861.45237445834</v>
+        <v>3076.45237448059</v>
       </c>
       <c r="E94" t="n">
-        <v>2861.14154938575</v>
+        <v>3076.141549402752</v>
       </c>
     </row>
     <row r="95">
@@ -1961,13 +1961,13 @@
         <v>3190.10986579015</v>
       </c>
       <c r="C95" t="n">
-        <v>288.425291019541</v>
+        <v>73.4252910092836</v>
       </c>
       <c r="D95" t="n">
-        <v>2901.68457477061</v>
+        <v>3116.68457478087</v>
       </c>
       <c r="E95" t="n">
-        <v>2901.354667043362</v>
+        <v>3116.354667048068</v>
       </c>
     </row>
     <row r="96">
@@ -1978,13 +1978,13 @@
         <v>3228.61194631962</v>
       </c>
       <c r="C96" t="n">
-        <v>287.024970731023</v>
+        <v>72.024970738305</v>
       </c>
       <c r="D96" t="n">
-        <v>2941.5869755886</v>
+        <v>3156.58697558132</v>
       </c>
       <c r="E96" t="n">
-        <v>2941.237442943087</v>
+        <v>3156.23744292994</v>
       </c>
     </row>
     <row r="97">
@@ -1995,13 +1995,13 @@
         <v>3266.72195130173</v>
       </c>
       <c r="C97" t="n">
-        <v>285.581988933474</v>
+        <v>70.5819889641606</v>
       </c>
       <c r="D97" t="n">
-        <v>2981.13996236826</v>
+        <v>3196.13996233757</v>
       </c>
       <c r="E97" t="n">
-        <v>2980.770210479698</v>
+        <v>3195.770210442834</v>
       </c>
     </row>
     <row r="98">
@@ -2012,13 +2012,13 @@
         <v>3304.42140180178</v>
       </c>
       <c r="C98" t="n">
-        <v>284.098074272164</v>
+        <v>69.0980743324327</v>
       </c>
       <c r="D98" t="n">
-        <v>3020.32332752962</v>
+        <v>3235.32332746935</v>
       </c>
       <c r="E98" t="n">
-        <v>3019.932703525516</v>
+        <v>3234.932703458758</v>
       </c>
     </row>
     <row r="99">
@@ -2029,13 +2029,13 @@
         <v>3341.69116753376</v>
       </c>
       <c r="C99" t="n">
-        <v>282.574955392365</v>
+        <v>67.57495548870349</v>
       </c>
       <c r="D99" t="n">
-        <v>3059.1162121414</v>
+        <v>3274.11621204506</v>
       </c>
       <c r="E99" t="n">
-        <v>3058.703996941368</v>
+        <v>3273.703996838228</v>
       </c>
     </row>
     <row r="100">
@@ -2046,13 +2046,13 @@
         <v>3378.51140093905</v>
       </c>
       <c r="C100" t="n">
-        <v>281.014360939347</v>
+        <v>66.0143610785554</v>
       </c>
       <c r="D100" t="n">
-        <v>3097.4970399997</v>
+        <v>3312.49703986049</v>
       </c>
       <c r="E100" t="n">
-        <v>3097.06243920627</v>
+        <v>3312.06243905995</v>
       </c>
     </row>
     <row r="101">
@@ -2063,13 +2063,13 @@
         <v>3414.86146222624</v>
       </c>
       <c r="C101" t="n">
-        <v>279.418019558382</v>
+        <v>64.4180197475705</v>
       </c>
       <c r="D101" t="n">
-        <v>3135.44344266786</v>
+        <v>3350.44344247867</v>
       </c>
       <c r="E101" t="n">
-        <v>3134.98557565067</v>
+        <v>3349.98557545406</v>
       </c>
     </row>
     <row r="102">
@@ -2080,13 +2080,13 @@
         <v>3450.71983358751</v>
       </c>
       <c r="C102" t="n">
-        <v>277.787659894741</v>
+        <v>62.7876601413309</v>
       </c>
       <c r="D102" t="n">
-        <v>3172.93217369277</v>
+        <v>3387.93217344618</v>
       </c>
       <c r="E102" t="n">
-        <v>3172.450060395822</v>
+        <v>3387.4500601415</v>
       </c>
     </row>
     <row r="103">
@@ -2097,13 +2097,13 @@
         <v>3486.06402034532</v>
       </c>
       <c r="C103" t="n">
-        <v>276.125010593695</v>
+        <v>61.1250109054189</v>
       </c>
       <c r="D103" t="n">
-        <v>3209.93900975162</v>
+        <v>3424.9390094399</v>
       </c>
       <c r="E103" t="n">
-        <v>3209.43155459564</v>
+        <v>3424.431554275872</v>
       </c>
     </row>
     <row r="104">
@@ -2114,13 +2114,13 @@
         <v>3520.87043616768</v>
       </c>
       <c r="C104" t="n">
-        <v>274.431800300516</v>
+        <v>59.4318006854174</v>
       </c>
       <c r="D104" t="n">
-        <v>3246.43863586716</v>
+        <v>3461.43863548226</v>
       </c>
       <c r="E104" t="n">
-        <v>3300.096730160286</v>
+        <v>3472.096729878356</v>
       </c>
     </row>
     <row r="105">
@@ -2131,13 +2131,13 @@
         <v>3555.11426865926</v>
       </c>
       <c r="C105" t="n">
-        <v>272.709757660473</v>
+        <v>57.7097581269074</v>
       </c>
       <c r="D105" t="n">
-        <v>3282.40451099879</v>
+        <v>3497.40451053235</v>
       </c>
       <c r="E105" t="n">
-        <v>3389.871859347336</v>
+        <v>3518.871859114724</v>
       </c>
     </row>
     <row r="106">
@@ -2152,7 +2152,7 @@
         <v>3588.76932049109</v>
       </c>
       <c r="E106" t="n">
-        <v>3478.724095379612</v>
+        <v>3564.724095209344</v>
       </c>
     </row>
     <row r="107">
@@ -2167,7 +2167,7 @@
         <v>3621.80781962802</v>
       </c>
       <c r="E107" t="n">
-        <v>3566.61932218349</v>
+        <v>3609.619322090202</v>
       </c>
     </row>
     <row r="108">
@@ -2317,7 +2317,7 @@
         <v>3910.33153817579</v>
       </c>
       <c r="E117" t="n">
-        <v>3909.136588392917</v>
+        <v>3909.136588392918</v>
       </c>
     </row>
     <row r="118">
